--- a/planning/assets/formatsXlsx/Requisiciones.xlsx
+++ b/planning/assets/formatsXlsx/Requisiciones.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>referencia_producto</t>
+    <t>referencia_material</t>
   </si>
   <si>
-    <t>producto</t>
+    <t>material</t>
   </si>
   <si>
     <t>fecha_solicitud</t>
@@ -33,16 +33,13 @@
   <si>
     <t>orden_compra</t>
   </si>
-  <si>
-    <t/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +61,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -78,7 +81,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -115,10 +118,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -127,32 +127,35 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -172,8 +175,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F6" displayName="Tabla1" name="Tabla1" id="1" totalsRowShown="0">
   <autoFilter ref="A1:F6"/>
   <tableColumns count="6">
-    <tableColumn name="referencia_producto" id="1"/>
-    <tableColumn name="producto" id="2"/>
+    <tableColumn name="referencia_material" id="1"/>
+    <tableColumn name="material" id="2"/>
     <tableColumn name="fecha_solicitud" id="3"/>
     <tableColumn name="fecha_entrega" id="4"/>
     <tableColumn name="cantidad" id="5"/>
@@ -478,9 +481,9 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="13" width="28.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="20.433571428571426" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="13" width="13.147857142857141" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="13" width="20.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
@@ -489,10 +492,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -506,257 +509,217 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="26.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="26.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="5"/>
+      <c r="F20" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="26.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="7"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="26.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="7"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="26.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="7"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="7"/>
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="7"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="7"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9"/>

--- a/planning/assets/formatsXlsx/Requisiciones.xlsx
+++ b/planning/assets/formatsXlsx/Requisiciones.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Ledesma\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0702D26-B549-446F-823D-890E16DBC479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Hoja1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>referencia_material</t>
   </si>
@@ -33,12 +39,14 @@
   <si>
     <t>orden_compra</t>
   </si>
+  <si>
+    <t>proveedor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -75,7 +83,7 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF0000ff"/>
+      <color rgb="FF0000FF"/>
       <name val="Comic Sans MS"/>
       <family val="2"/>
     </font>
@@ -113,76 +121,92 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F6" displayName="Tabla1" name="Tabla1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:F6"/>
-  <tableColumns count="6">
-    <tableColumn name="referencia_material" id="1"/>
-    <tableColumn name="material" id="2"/>
-    <tableColumn name="fecha_solicitud" id="3"/>
-    <tableColumn name="fecha_entrega" id="4"/>
-    <tableColumn name="cantidad" id="5"/>
-    <tableColumn name="orden_compra" id="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:G6" totalsRowShown="0">
+  <autoFilter ref="A1:G6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="referencia_material"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="material"/>
+    <tableColumn id="7" xr3:uid="{180DD12C-FE4A-4365-AC5B-F7D91C97AABA}" name="proveedor" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="fecha_solicitud"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="fecha_entrega"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="cantidad"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="orden_compra"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -191,10 +215,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -232,71 +256,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -324,7 +348,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -347,11 +371,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -360,13 +384,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -376,7 +400,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -385,7 +409,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -394,7 +418,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -402,10 +426,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -470,25 +494,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="28.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5">
+    <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,241 +523,190 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="26.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="26.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="26.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="26.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="26.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="10">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planning/assets/formatsXlsx/Requisiciones.xlsx
+++ b/planning/assets/formatsXlsx/Requisiciones.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Ledesma\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0702D26-B549-446F-823D-890E16DBC479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Hoja1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -28,26 +22,27 @@
     <t>material</t>
   </si>
   <si>
+    <t>proveedor</t>
+  </si>
+  <si>
     <t>fecha_solicitud</t>
   </si>
   <si>
     <t>fecha_entrega</t>
   </si>
   <si>
-    <t>cantidad</t>
+    <t>cantidad_solicitada</t>
   </si>
   <si>
     <t>orden_compra</t>
-  </si>
-  <si>
-    <t>proveedor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,7 +65,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -83,14 +78,8 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF0000ff"/>
       <name val="Comic Sans MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -121,92 +110,80 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="16">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:G6" totalsRowShown="0">
-  <autoFilter ref="A1:G6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G6" displayName="Tabla1" name="Tabla1" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:G6"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="referencia_material"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="material"/>
-    <tableColumn id="7" xr3:uid="{180DD12C-FE4A-4365-AC5B-F7D91C97AABA}" name="proveedor" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="fecha_solicitud"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="fecha_entrega"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="cantidad"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="orden_compra"/>
+    <tableColumn name="referencia_material" id="1"/>
+    <tableColumn name="material" id="2"/>
+    <tableColumn name="proveedor" id="3"/>
+    <tableColumn name="fecha_solicitud" id="4"/>
+    <tableColumn name="fecha_entrega" id="5"/>
+    <tableColumn name="cantidad_solicitada" id="6"/>
+    <tableColumn name="orden_compra" id="7"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
 </file>
 
@@ -215,10 +192,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -256,71 +233,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -348,7 +325,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -371,11 +348,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -384,13 +361,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -400,7 +377,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -409,7 +386,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -418,7 +395,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -426,10 +403,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -494,28 +471,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="13" width="33.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="38.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="30.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="26.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="25.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,22 +498,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -547,7 +522,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -556,7 +531,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -565,7 +540,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -574,7 +549,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -583,130 +558,212 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="26.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="26.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="26.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="26.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="26.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="10">
+      <c r="A29" s="9"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
